--- a/forecast_summary_B0D2V4VH2C.xlsx
+++ b/forecast_summary_B0D2V4VH2C.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>522.434505928434</v>
       </c>
       <c r="D2" t="n">
-        <v>537.3586708449711</v>
+        <v>538.194764035499</v>
       </c>
       <c r="E2" t="n">
         <v>164</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>551.6882744296173</v>
       </c>
       <c r="D3" t="n">
-        <v>566.9324799301347</v>
+        <v>566.839952850069</v>
       </c>
       <c r="E3" t="n">
         <v>65</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C4" t="n">
         <v>495.0059214200148</v>
       </c>
       <c r="D4" t="n">
-        <v>509.9236886364436</v>
+        <v>510.1314735289072</v>
       </c>
       <c r="E4" t="n">
         <v>71</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>539.5712604689477</v>
       </c>
       <c r="D5" t="n">
-        <v>555.3350749984344</v>
+        <v>553.7375810510044</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>735.7727974614606</v>
       </c>
       <c r="D6" t="n">
-        <v>751.6115428100219</v>
+        <v>751.3541270904292</v>
       </c>
       <c r="E6" t="n">
         <v>51</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>847.4264600248692</v>
       </c>
       <c r="D7" t="n">
-        <v>861.9483357844258</v>
+        <v>862.9257726754231</v>
       </c>
       <c r="E7" t="n">
         <v>51</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>582.3682386689088</v>
       </c>
       <c r="D8" t="n">
-        <v>597.1407407783777</v>
+        <v>597.5375180011032</v>
       </c>
       <c r="E8" t="n">
         <v>51</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>8.500617369258316</v>
       </c>
       <c r="D9" t="n">
-        <v>23.15101793735249</v>
+        <v>24.20956289957784</v>
       </c>
       <c r="E9" t="n">
         <v>51</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-368.7713370180488</v>
       </c>
       <c r="D10" t="n">
-        <v>-353.401359728435</v>
+        <v>-353.175337095004</v>
       </c>
       <c r="E10" t="n">
         <v>53</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-88.99351718559255</v>
       </c>
       <c r="D11" t="n">
-        <v>-73.71854976661407</v>
+        <v>-73.6145437839004</v>
       </c>
       <c r="E11" t="n">
         <v>75</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>685.1433532942943</v>
       </c>
       <c r="D12" t="n">
-        <v>700.7380191930889</v>
+        <v>700.0988111308895</v>
       </c>
       <c r="E12" t="n">
         <v>85</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>1202.956571466039</v>
       </c>
       <c r="D13" t="n">
-        <v>1218.752706215205</v>
+        <v>1218.584823056135</v>
       </c>
       <c r="E13" t="n">
         <v>84</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>871.8324899150607</v>
       </c>
       <c r="D14" t="n">
-        <v>886.4132783026379</v>
+        <v>886.257041775783</v>
       </c>
       <c r="E14" t="n">
         <v>83</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-43.48453588373054</v>
       </c>
       <c r="D15" t="n">
-        <v>-27.68256934001375</v>
+        <v>-28.59942023775876</v>
       </c>
       <c r="E15" t="n">
         <v>82</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-597.9137360759909</v>
       </c>
       <c r="D16" t="n">
-        <v>-583.5625639605361</v>
+        <v>-584.2625939840404</v>
       </c>
       <c r="E16" t="n">
         <v>80</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-133.0578100290799</v>
       </c>
       <c r="D17" t="n">
-        <v>-117.3715764308997</v>
+        <v>-117.6580117523849</v>
       </c>
       <c r="E17" t="n">
         <v>83</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>975.5339256956825</v>
       </c>
       <c r="D18" t="n">
-        <v>991.2843031662001</v>
+        <v>989.5577958914439</v>
       </c>
       <c r="E18" t="n">
         <v>78</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>1638.221476793</v>
       </c>
       <c r="D19" t="n">
-        <v>1652.650120091776</v>
+        <v>1652.19894977405</v>
       </c>
       <c r="E19" t="n">
         <v>78</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>1143.299066215154</v>
       </c>
       <c r="D20" t="n">
-        <v>1158.003970868138</v>
+        <v>1159.073344386233</v>
       </c>
       <c r="E20" t="n">
         <v>86</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-132.4873806991526</v>
       </c>
       <c r="D21" t="n">
-        <v>-117.0804686501317</v>
+        <v>-116.9006762364656</v>
       </c>
       <c r="E21" t="n">
         <v>75</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650M GAMING PLUS WIFI</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7059</t>
+          <t>7060</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4295</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
